--- a/data/participants_variables.xlsx
+++ b/data/participants_variables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karl/work/X2bids-main/Behave/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB77385B-BF2E-F14A-9ECE-04E36D16C334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F268C95E-501B-1F4B-A4CA-24FED0684680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="12640" windowWidth="27840" windowHeight="16740" xr2:uid="{18F86FE8-79EB-A14B-B2D7-08912B07C8F4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{18F86FE8-79EB-A14B-B2D7-08912B07C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Biological sex</t>
   </si>
   <si>
-    <t>categorical</t>
-  </si>
-  <si>
     <t>VariableName</t>
   </si>
   <si>
@@ -129,13 +127,28 @@
   </si>
   <si>
     <t>single_run</t>
+  </si>
+  <si>
+    <t>cat_num</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>My Bids dataset</t>
+  </si>
+  <si>
+    <t>BIDSVersion</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +171,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,10 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -519,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EE173E-B47F-CB4A-9688-91A95D0EB64A}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -542,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -550,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -559,13 +580,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -574,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -588,104 +609,135 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE44F2-DE9B-1840-9667-7216C044FC34}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
